--- a/DOM_Banner/output/dept_banner/Geoffrey Block_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Geoffrey Block_2022.xlsx
@@ -1765,10 +1765,10 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>c(funder = "https://openalex.org/F4320337338", funder_display_name = "National Heart, Lung, and Blood Institute", award_id = "K24HL150235", funder = "https://openalex.org/F4320337338", funder_display_name = "National Heart, Lung, and Blood Institute", award_id = "K23HL150236", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "R01DK081374", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", 
-award_id = "R01DK102438", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "U01DK099877", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "K23DK120811", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "U01DK097093", 
-funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "U01DK099933", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "U01DK099924", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "R01DK093793", funder = "https://openalex.org/F4320337357", 
-funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "P30DK114857", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "U01DK099930", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "U2CDK114886", funder = "https://openalex.org/F4320337472", funder_display_name = "National Center for Advancing Translational Sciences", 
+          <t>c(funder = "https://openalex.org/F4320337338", funder_display_name = "National Heart, Lung, and Blood Institute", award_id = "K23HL150236", funder = "https://openalex.org/F4320337338", funder_display_name = "National Heart, Lung, and Blood Institute", award_id = "K24HL150235", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "U01DK099924", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", 
+award_id = "P30DK114857", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "R01DK093793", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "U01DK099877", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "R01DK081374", 
+funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "U2CDK114886", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "K23DK120811", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "U01DK099930", funder = "https://openalex.org/F4320337357", 
+funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "U01DK097093", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "U01DK099933", funder = "https://openalex.org/F4320337357", funder_display_name = "National Institute of Diabetes and Digestive and Kidney Diseases", award_id = "R01DK102438", funder = "https://openalex.org/F4320337472", funder_display_name = "National Center for Advancing Translational Sciences", 
 award_id = "KL2TR001424", funder = "https://openalex.org/F4320337472", funder_display_name = "National Center for Advancing Translational Sciences", award_id = "UL1TR001422")</t>
         </is>
       </c>

--- a/DOM_Banner/output/dept_banner/Geoffrey Block_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Geoffrey Block_2022.xlsx
@@ -688,7 +688,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bradley A. Warady, Pablo E. Pèrgola, Rajiv Agarwal, Sharon P. Andreoli, Gerald B. Appel, Sripal Bangalore, Geoffrey A. Block, Arlene B. Chapman, Melanie Chin, Keisha Gibson, Angie Goldsberry, Kazumoto Iijima, Lesley A. Inker, Clifford E. Kashtan, Bertrand Knebelmann, Laura Mariani, Colin Meyer, Kandai Nozu, Megan O’Grady, Michelle N. Rheault, Arnold L. Silva, Peter Stenvinkel, Roser Torra, Glenn M. Chertow</t>
+          <t>Bradley A. Warady, Pablo E. Pérgola, Rajiv Agarwal, Sharon P. Andreoli, Gerald B. Appel, Sripal Bangalore, Geoffrey A. Block, Arlene B. Chapman, Melanie Chin, Keisha Gibson, Angie Goldsberry, Kazumoto Iijima, Lesley A. Inker, Clifford E. Kashtan, Bertrand Knebelmann, Laura Mariani, Colin Meyer, Kandai Nozu, Megan O’Grady, Michelle N. Rheault, Arnold L. Silva, Peter Stenvinkel, Roser Torra, Glenn M. Chertow</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Geoffrey Block_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Geoffrey Block_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Medicine (Nephrology), Stanford University, Palo Alto, California (S.A., M.E.M., J.H., P.G.).; Department of Medicine (Nephrology), Stanford University, Palo Alto, California (S.A., M.E.M., J.H., P.G.).; Department of Medicine (Nephrology), Stanford University, Palo Alto, California (S.A., M.E.M., J.H., P.G.).; Department of Medicine (Nephrology), Stanford University, Palo Alto, California (S.A., M.E.M., J.H., P.G.).; Ascend Clinical Laboratory, Redwood City, California (L.C., P.H., C.M., R.K., P.B.).; Ascend Clinical Laboratory, Redwood City, California (L.C., P.H., C.M., R.K., P.B.).; Ascend Clinical Laboratory, Redwood City, California (L.C., P.H., C.M., R.K., P.B.).; Ascend Clinical Laboratory, Redwood City, California (L.C., P.H., C.M., R.K., P.B.).; Ascend Clinical Laboratory, Redwood City, California (L.C., P.H., C.M., R.K., P.B.).; U.S. Renal Care, Plano, Texas (M.D.); U.S. Renal Care, Golden, Colorado (G.A.B.).; Departments of Medicine (Nephrology) and Epidemiology and Population Health, Stanford University, Stanford, California (G.M.C.).; Departments of Medicine (Infectious Diseases and Geographic Medicine) and Epidemiology and Population Health, Stanford University, Stanford, California (J.P.).</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4200172978</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>SARS-CoV-2 Vaccine Antibody Response and Breakthrough Infection in Patients Receiving Dialysis</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Annals of Internal Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American College of Physicians</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.7326/m21-4176</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34904856</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.7326/m21-4176</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Melbourne, Parkville, Australia; Department of Nephrology, The Royal Melbourne Hospital, Parkville, Australia; Department of Nephrology, Western Health, Melbourne, Australia; Australasian Kidney Trials Network, Brisbane, Australia; Australasian Kidney Trials Network, Brisbane, Australia; Department of Nephrology, Princess Alexandra Hospital, Brisbane, Australia; Translational Research Institute, Brisbane, Australia; Department of Medicine, University of Sydney, Sydney, Australia; Department of Nephrology, Westmead Hospital, Sydney, Australia; Osteoporosis and Bone Biology Division, Garvan Institute of Medical Research, Darlinghurst, Australia; School of Medicine, University of Notre Dame, Sydney, Australia; Australasian Kidney Trials Network, Brisbane, Australia; Department of Nephrology, St. George Hospital, Sydney, Australia; Renal and Metabolic Division, the George Institute for Global Health, University of New South Wales, Sydney, Australia; Reata Pharmaceuticals, Plano, Texas; Australasian Kidney Trials Network, Brisbane, Australia; Department of Nephrology, Princess Alexandra Hospital, Brisbane, Australia; Translational Research Institute, Brisbane, Australia; Department of Medicine, University of Melbourne, Parkville, Australia; Department of Nephrology, The Royal Melbourne Hospital, Parkville, Australia</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4205471539</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Systematic Review and Meta-Analyses of the Effects of Phosphate-Lowering Agents in Nondialysis CKD</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of The American Society of Nephrology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Society of Nephrology</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1681/asn.2021040554</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34645696</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1681/asn.2021040554</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1Department of Medicine (Nephrology), Stanford University, Palo Alto, California; 2Ascend Clinical Laboratory, Redwood City, California; 3US Renal Care, Plano, Texas; M.E.M.-R., P.G., G.A.B., J.P., G.M.C., and S.A. contributed equally to this work.; 1Department of Medicine (Nephrology), Stanford University, Palo Alto, California; 2Ascend Clinical Laboratory, Redwood City, California; 3US Renal Care, Plano, Texas; M.E.M.-R., P.G., G.A.B., J.P., G.M.C., and S.A. contributed equally to this work.; 1Department of Medicine (Nephrology), Stanford University, Palo Alto, California; 2Ascend Clinical Laboratory, Redwood City, California; 3US Renal Care, Plano, Texas; M.E.M.-R., P.G., G.A.B., J.P., G.M.C., and S.A. contributed equally to this work.; 1Department of Medicine (Nephrology), Stanford University, Palo Alto, California; 2Ascend Clinical Laboratory, Redwood City, California; 3US Renal Care, Plano, Texas; M.E.M.-R., P.G., G.A.B., J.P., G.M.C., and S.A. contributed equally to this work.; 1Department of Medicine (Nephrology), Stanford University, Palo Alto, California; 2Ascend Clinical Laboratory, Redwood City, California; 3US Renal Care, Plano, Texas; M.E.M.-R., P.G., G.A.B., J.P., G.M.C., and S.A. contributed equally to this work.; 1Department of Medicine (Nephrology), Stanford University, Palo Alto, California; 2Ascend Clinical Laboratory, Redwood City, California; 3US Renal Care, Plano, Texas; M.E.M.-R., P.G., G.A.B., J.P., G.M.C., and S.A. contributed equally to this work.; 1Department of Medicine (Nephrology), Stanford University, Palo Alto, California; 2Ascend Clinical Laboratory, Redwood City, California; 3US Renal Care, Plano, Texas; M.E.M.-R., P.G., G.A.B., J.P., G.M.C., and S.A. contributed equally to this work.; 1Department of Medicine (Nephrology), Stanford University, Palo Alto, California; 2Ascend Clinical Laboratory, Redwood City, California; 3US Renal Care, Plano, Texas; M.E.M.-R., P.G., G.A.B., J.P., G.M.C., and S.A. contributed equally to this work.; 1Department of Medicine (Nephrology), Stanford University, Palo Alto, California; 2Ascend Clinical Laboratory, Redwood City, California; 3US Renal Care, Plano, Texas; M.E.M.-R., P.G., G.A.B., J.P., G.M.C., and S.A. contributed equally to this work.; 1Department of Medicine (Nephrology), Stanford University, Palo Alto, California; 2Ascend Clinical Laboratory, Redwood City, California; 3US Renal Care, Plano, Texas; M.E.M.-R., P.G., G.A.B., J.P., G.M.C., and S.A. contributed equally to this work.; 2Ascend Clinical Laboratory, Redwood City, California; 3US Renal Care, Plano, Texas; 4Department of Medicine (Infectious Diseases and Geographic Medicine), Stanford University, Palo Alto, California; M.E.M.-R., P.G., G.A.B., J.P., G.M.C., and S.A. contributed equally to this work.; 1Department of Medicine (Nephrology), Stanford University, Palo Alto, California; 2Ascend Clinical Laboratory, Redwood City, California; 3US Renal Care, Plano, Texas; M.E.M.-R., P.G., G.A.B., J.P., G.M.C., and S.A. contributed equally to this work.; 1Department of Medicine (Nephrology), Stanford University, Palo Alto, California; 2Ascend Clinical Laboratory, Redwood City, California; 3US Renal Care, Plano, Texas; M.E.M.-R., P.G., G.A.B., J.P., G.M.C., and S.A. contributed equally to this work.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4292066411</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>SARS-CoV-2 Infection during the Omicron Surge among Patients Receiving Dialysis: The Role of Circulating Receptor-Binding Domain Antibodies and Vaccine Doses</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of The American Society of Nephrology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>American Society of Nephrology</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1681/asn.2022040504</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35973733</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1681/asn.2022040504</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 2Renal Associates PA, San Antonio, Texas; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; Division of Pediatric Nephrology, Department of Pediatrics, Alport Syndrome Treatments and Outcomes Registry, University of Minnesota Medical School and Masonic Children’s Hospital, Minneapolis, Minnesota; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; Division of Pediatric Nephrology, Department of Pediatrics, Alport Syndrome Treatments and Outcomes Registry, University of Minnesota Medical School and Masonic Children’s Hospital, Minneapolis, Minnesota; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veterans Administration Medical Center, Indianapolis, Indiana; 4Riley Hospital for Children, Indiana University School of Medicine, Indianapolis, Indiana; 5Division of Nephrology, Department of Medicine, Columbia University College of Physicians and Surgeons, New York, New York; 6Cardiovascular Clinical Research Center, New York University School of Medicine, New York, New York; 7Department of Clinical Research and Medical Affairs, US Renal Care, Inc., Plano, Texas; 8Section of Nephrology, University of Chicago, Chicago, Illinois; 9Reata Pharmaceuticals, Plano, Texas; 10University of North Carolina Kidney Center at Chapel Hill, Chapel Hill, North Carolina; 11Department of Pediatrics, Kobe University Graduate School of Medicine, Kobe, Japan; 12Division of Nephrology, Tufts Medical Center, Boston, Massachusetts; 15Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; 16Boise Kidney and Hypertension Institute, Meridian, Idaho; 17Division of Renal Medicine, Department of Clinical Science, Technology and Intervention, Karolinska Institutet, Stockholm, Sweden; 18Inherited Kidney Disorders, Nephrology Department, Fundacio Puigvert, IIB Sant Pau, REDINREN (Instituto de Investigacion Carlos III), Universitat Autonoma de Barcelona, Barcelona, Spain; 19Division of Nephrology, Department of Medicine, Stanford University School of Medicine, Palo Alto, California; 3Department of Medicine, Indiana University School of Medicine and Richard L. Roudebush Veter</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4309655302</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Effects of Bardoxolone Methyl in Alport Syndrome</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Clinical Journal of the American Society of Nephrology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.2215/cjn.02400222</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36411058</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.2215/cjn.02400222</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Division of Pediatric Nephrology, Joseph M. Sanzari Children's Hospital of the Hackensack Meridian Health Network, Hackensack, New Jersey; Division of Nephrology, Geisinger Medical Center, Danville, Pennsylvania; Division of Clinical Research, Reata Pharmaceuticals, Inc., Plano, Texas; Department of Clinical Genomics, Invitae, San Francisco, California; Department of Clinical Genomics, Invitae, San Francisco, California; Department of Medical Affairs, Invitae, San Francisco, California,; Department of Clinical Genomics, Invitae, San Francisco, California; Department of Medical Affairs, Invitae, San Francisco, California,; Department of Clinical Genomics, Invitae, San Francisco, California; Department of Medical Affairs, Invitae, San Francisco, California,; Division of Medical Affairs, Reata Pharmaceuticals, Inc., Plano, Texas; Division of Medical Affairs, Reata Pharmaceuticals, Inc., Plano, Texas; Department of Medicine, Beth Israel Deaconess Medical Center, Boston, Massachusetts; Department of Clinical Genomics, Invitae, San Francisco, California; Department of Medical Affairs, Invitae, San Francisco, California,; Division of Pediatric Nephrology, Children’s Mercy Kansas City, Kansas City, Missouri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220848879</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>The KIDNEYCODE Program: Diagnostic Yield and Clinical Features of Individuals with CKD</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-05-26</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Kidney360</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.34067/kid.0004162021</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36128480</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.34067/kid.0004162021</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Amgen Inc.  Thousand Oaks CA USA; Amgen Inc.  Thousand Oaks CA USA; US Renal Care, Inc  Plano TX USA; Amgen Inc.  Thousand Oaks CA USA; Amgen Inc.  Thousand Oaks CA USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220691513</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Influence of Renal Function on Pharmacokinetics, Pharmacodynamics, and Safety of a Single Dose of Romosozumab</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-04-02</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>The Journal of Clinical Pharmacology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/jcph.2050</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35304747</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/jcph.2050</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Graduate Medical Education, Feinberg School of Medicine, Northwestern University, Chicago, Illinois.; Center for Translational Metabolism and Health, Feinberg School of Medicine, Northwestern University, Chicago, Illinois.; Center for Translational Metabolism and Health, Feinberg School of Medicine, Northwestern University, Chicago, Illinois.; Department of Radiology, NorthShore University Health System Evanston, Evanston, Illinois.; Division of Nephrology and Hypertension, NorthShore University Health System, Evanston, Illinois.; University of Chicago Pritzker School of Medicine, Chicago, Illinois.; Department of Radiology, Feinberg School of Medicine, Northwestern University, Chicago, Illinois.; Division of Nephrology, Department of Medicine, Duke University School of Medicine, Durham, North Carolina; Duke Clinical Research Institute, Duke University School of Medicine, Durham, North Carolina; Division of Nephrology, Department of Medicine, University of San Diego School of Medicine and Veterans Affairs San Diego Healthcare System, San Diego, California.; Reata Pharmaceuticals, Irving, Texas.; Division of Renal Disease/Hypertension, Department of Internal Medicine, University of Colorado Hospitals, Aurora, Colorado; Division of Nephrology and Hypertension, Department of Medicine, Oregon Health and Science University and Veterans Affairs Portland Health Care System, Portland, Oregon.; Division of Nephrology and Hypertension, Department of Internal Medicine, University of Utah Health, Salt Lake City, Utah.; Division of Kidney Diseases and Hypertension, George Washington University School of Medicine, Washington, DC.; Lerner Research Institute, Cleveland Clinic, Cleveland, Ohio.; Division of Cardiology, Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, Maryland.; Duke Clinical Research Institute, Duke University School of Medicine, Durham, North Carolina.; Renal Section, Veterans Affairs Pittsburgh Healthcare System and Department of Medicine, Renal-Electrolyte Division, University of Pittsburgh, Pittsburgh, Pennsylvania.; Department of Radiology, Feinberg School of Medicine, Northwestern University, Chicago, Illinois.; Center for Translational Metabolism and Health, Feinberg School of Medicine, Northwestern University, Chicago, Illinois.; Center for Translational Metabolism and Health, Feinberg School of Medicine, Northwestern University, Chicago, Illinois.; Division of Nephrology, Department of Medicine, Jesse Brown Veterans Administration Medical Center, Chicago, Illinois.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225689429</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Abnormalities in Cardiac Structure and Function among Individuals with CKD: The COMBINE Trial</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Kidney360</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.34067/kid.0005022021</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35373122</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.34067/kid.0005022021</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Medicine (Nephrology), Stanford University; Department of Medicine (Nephrology), Stanford University; Department of Medicine (Nephrology), Stanford University; Ascend Clinical Laboratory; Ascend Clinical Laboratory; Ascend Clinical Laboratory; Ascend Clinical Laboratory; Ascend Clinical Laboratory; ; ; Department of Medicine (Nephrology), Stanford University; Departments of Medicine (Infectious Diseases and Geographic Medicine), and Epidemiology and Population Health, Stanford University; Departments of Medicine (Nephrology), and Epidemiology and Population Health, Stanford University</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220659277</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>SARS-CoV-2 infection during the Omicron surge among patients receiving dialysis: the role of circulating receptor-binding domain antibodies and vaccine doses</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-03-16</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.03.15.22272426</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35313586</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.03.15.22272426</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1101,77 +1146,77 @@
           <t>Geoffrey A. Block</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://openalex.org/W4280492155</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>“A sad and listless affair”</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-04-05</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Oxford University Press eBooks</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/oso/9780197603192.003.0011</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/oso/9780197603192.003.0011</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
